--- a/Defence2D/Game_Design/테이블/StageData.xlsx
+++ b/Defence2D/Game_Design/테이블/StageData.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/78a343869a8ef49c/사이드프로젝트/테이블/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SIDE_PROJECT\Defence2D\Game_Design\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="241" documentId="11_AD4D066CA252ABDACC1048764124708549B8DF51" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1B5D03D-4A3B-40D4-B859-41953316D280}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{110728EA-7C9F-4A01-B364-01B60965D832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="StageData (csv용)" sheetId="2" r:id="rId1"/>
+    <sheet name="StageData (작업용)" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
     <author>Seungjae Lee</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{955B5D91-7B2B-41E3-B43D-8C583B7C051D}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{D20052A8-225F-4BAD-B81D-5B691AD26887}">
       <text>
         <r>
           <rPr>
@@ -60,7 +61,28 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>인덱스</t>
+          <t>레코드</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이름</t>
         </r>
         <r>
           <rPr>
@@ -77,6 +99,414 @@
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">* </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>해당</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>레코드가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>어떤</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>레코드인지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>식별하기</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>위한</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이름</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">. 
+* </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기획자의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>데이터</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>관리</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>편의를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>위한</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>용도</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">.
+* </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>클라이언트</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>서버</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>등에서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>참조할</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>필요</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>없음</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{955B5D91-7B2B-41E3-B43D-8C583B7C051D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>&lt;</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>인덱스</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">&gt;
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -143,7 +573,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{F88B0BEC-1526-4E98-AEB2-CECE12BA1508}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{F88B0BEC-1526-4E98-AEB2-CECE12BA1508}">
       <text>
         <r>
           <rPr>
@@ -324,435 +754,6 @@
           </rPr>
           <t xml:space="preserve">]
 </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{D20052A8-225F-4BAD-B81D-5B691AD26887}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>&lt;</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>레코드</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>이름</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">&gt;
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">* </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>해당</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>레코드가</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>어떤</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>레코드인지</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>식별하기</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>위한</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>이름</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">. 
-* </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>기획자의</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>데이터</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>관리</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>편의를</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>위한</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>용도</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">.
-* </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>클라이언트</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">, </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>서버</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>등에서</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>참조할</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>필요</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>없음</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>.</t>
         </r>
       </text>
     </comment>
@@ -2138,7 +2139,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="51">
   <si>
     <t>인덱스</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -2276,6 +2277,42 @@
   </si>
   <si>
     <t>StageGen_N_1_10</t>
+  </si>
+  <si>
+    <t>index</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>unlock_condition</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>unlock_condition_code</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>king_code</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>king_level</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage_gen_group_code</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>background_resource</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2446,7 +2483,67 @@
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="1" xr:uid="{A692FC1F-D7FB-49B2-BFDE-25A1A1375A5E}"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2478,10 +2575,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2746,35 +2839,360 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{009E9F59-6855-4234-AD80-6648BB2D3051}">
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.625" customWidth="1"/>
-    <col min="4" max="4" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>3</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>4</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>5</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2">
+        <v>6</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>7</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2">
+        <v>8</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2">
+        <v>9</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="2">
+        <v>10</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <conditionalFormatting sqref="B2:B11">
+    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:B11">
+    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:B1">
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>26</v>
@@ -2796,301 +3214,336 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>31</v>
+      <c r="A2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>17</v>
+      <c r="A3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="D3" s="2">
-        <v>2</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="A4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="2">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="F4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>19</v>
+      <c r="A5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D5" s="2">
         <v>2</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>20</v>
+      <c r="A6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D6" s="2">
         <v>2</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>21</v>
+      <c r="A7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="D7" s="2">
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>22</v>
+      <c r="A8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="2">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="D8" s="2">
         <v>2</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>23</v>
+      <c r="A9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="2">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D9" s="2">
         <v>2</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>24</v>
+      <c r="A10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="2">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="D10" s="2">
         <v>2</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="A11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="2">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="2">
+        <v>9</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="2">
-        <v>2</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="D12" s="2">
+        <v>2</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G11" s="2">
+      <c r="F12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="2">
         <v>10</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H12" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I12" s="5" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting sqref="B1:B11">
+  <conditionalFormatting sqref="C1 C3:C12">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:C1 B3:C12">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:B11">
+  <conditionalFormatting sqref="B2:C2">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
